--- a/data/trans_bre/IP09-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP09-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,87</t>
+          <t>-5,02</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,96</t>
+          <t>15,19</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,84</t>
+          <t>-21,56</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,37</t>
+          <t>26,46</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-14,87%</t>
+          <t>-22,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-17,57%</t>
+          <t>68,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-13,97%</t>
+          <t>-41,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-17,5%</t>
+          <t>94,82%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,77; 20,46</t>
+          <t>-24,0; 13,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,19; 15,3</t>
+          <t>-4,83; 33,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-39,03; 22,23</t>
+          <t>-50,11; 9,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,78; 17,7</t>
+          <t>-3,13; 56,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,71; 82,69</t>
+          <t>-73,87; 107,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-57,52; 44,34</t>
+          <t>-17,94; 281,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-61,46; 74,26</t>
+          <t>-75,1; 26,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-58,21; 68,37</t>
+          <t>-12,4; 307,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,02</t>
+          <t>-5,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,19</t>
+          <t>-7,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-21,56</t>
+          <t>-6,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,46</t>
+          <t>-6,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-22,01%</t>
+          <t>-14,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>68,1%</t>
+          <t>-17,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-41,13%</t>
+          <t>-13,97%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>94,82%</t>
+          <t>-17,5%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-24,0; 13,75</t>
+          <t>-27,77; 20,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 33,2</t>
+          <t>-31,19; 15,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-50,11; 9,21</t>
+          <t>-39,03; 22,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 56,14</t>
+          <t>-25,78; 17,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-73,87; 107,9</t>
+          <t>-58,71; 82,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 281,57</t>
+          <t>-57,52; 44,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-75,1; 26,17</t>
+          <t>-61,46; 74,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 307,85</t>
+          <t>-58,21; 68,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP09-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP09-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,52</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>26,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>21,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-21,93%</t>
+          <t>-0,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-8,29%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>111,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>296,03%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 15,69</t>
+          <t>-27,31; 31,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,86; 14,49</t>
+          <t>-17,73; 27,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 33,41</t>
+          <t>-6,08; 55,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 32,04</t>
+          <t>-4,77; 49,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-73,69; 105,9</t>
+          <t>-75,11; 186,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-50,37; 59,0</t>
+          <t>-46,9; 152,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-33,56; 127,4</t>
+          <t>-28,78; 485,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-55,34; 216,53</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,02</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,19</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-21,56</t>
+          <t>-22,1</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>26,46</t>
+          <t>15,39</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-22,01%</t>
+          <t>-24,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>68,1%</t>
+          <t>24,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-41,13%</t>
+          <t>-39,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>94,82%</t>
+          <t>41,44%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-24,0; 13,75</t>
+          <t>-19,44; 12,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 33,2</t>
+          <t>-14,47; 24,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-50,11; 9,21</t>
+          <t>-43,17; 5,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 56,14</t>
+          <t>-14,47; 46,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-73,87; 107,9</t>
+          <t>-74,54; 94,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 281,57</t>
+          <t>-43,55; 136,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-75,1; 26,17</t>
+          <t>-67,83; 14,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 307,85</t>
+          <t>-32,38; 172,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,87</t>
+          <t>-15,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,96</t>
+          <t>9,47</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,84</t>
+          <t>-36,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,37</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-14,87%</t>
+          <t>-38,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-17,57%</t>
+          <t>37,48%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-13,97%</t>
+          <t>-47,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-17,5%</t>
+          <t>7,31%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-27,77; 20,46</t>
+          <t>-40,98; 11,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-31,19; 15,3</t>
+          <t>-15,65; 35,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-39,03; 22,23</t>
+          <t>-71,09; 11,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,78; 17,7</t>
+          <t>-25,57; 31,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-58,71; 82,69</t>
+          <t>-79,99; 53,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-57,52; 44,34</t>
+          <t>-43,16; 363,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-61,46; 74,26</t>
+          <t>-80,32; 15,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-58,21; 68,37</t>
+          <t>-46,49; 106,87</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,04</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-14,46</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,73</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-20,97%</t>
+          <t>-5,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>-26,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-12,4%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>-19,45%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 5,29</t>
+          <t>-32,48; 29,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 11,57</t>
+          <t>-41,19; 14,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,83; 10,05</t>
+          <t>-27,25; 42,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 19,04</t>
+          <t>-28,1; 21,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,18; 22,33</t>
+          <t>-77,6; 124,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,34; 39,18</t>
+          <t>-64,21; 33,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-39,86; 26,04</t>
+          <t>-51,9; 223,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 79,28</t>
+          <t>-73,34; 136,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-6,04</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-5,73</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,17</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-20,97%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,46%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-12,4%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9,96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-17,65; 6,48</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-10,66; 12,76</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-20,03; 11,73</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-10,86; 19,15</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-53,39; 27,5</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-27,3; 44,5</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-38,4; 31,92</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-29,16; 75,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP09-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP09-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,31; 31,61</t>
+          <t>-29,47; 30,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 27,98</t>
+          <t>-20,53; 23,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 55,66</t>
+          <t>-6,68; 54,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 49,61</t>
+          <t>-7,53; 49,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-75,11; 186,98</t>
+          <t>-75,48; 192,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-46,9; 152,3</t>
+          <t>-52,8; 129,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,78; 485,46</t>
+          <t>-19,36; 529,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 12,83</t>
+          <t>-20,43; 13,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 24,55</t>
+          <t>-13,08; 24,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-43,17; 5,56</t>
+          <t>-46,14; 3,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 46,17</t>
+          <t>-13,86; 43,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-74,54; 94,65</t>
+          <t>-74,94; 113,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,55; 136,86</t>
+          <t>-40,15; 157,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-67,83; 14,58</t>
+          <t>-70,31; 9,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,38; 172,31</t>
+          <t>-29,23; 168,15</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-40,98; 11,19</t>
+          <t>-42,98; 14,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 35,52</t>
+          <t>-16,09; 34,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-71,09; 11,52</t>
+          <t>-69,12; 11,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,57; 31,37</t>
+          <t>-24,95; 30,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-79,99; 53,12</t>
+          <t>-81,47; 64,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-43,16; 363,24</t>
+          <t>-48,6; 346,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-80,32; 15,1</t>
+          <t>-82,25; 8,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-46,49; 106,87</t>
+          <t>-45,65; 113,75</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 29,45</t>
+          <t>-30,26; 29,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-41,19; 14,16</t>
+          <t>-39,3; 13,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-27,25; 42,1</t>
+          <t>-25,34; 42,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,1; 21,1</t>
+          <t>-28,73; 21,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-77,6; 124,36</t>
+          <t>-76,69; 156,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,21; 33,64</t>
+          <t>-64,7; 28,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-51,9; 223,57</t>
+          <t>-54,15; 261,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-73,34; 136,09</t>
+          <t>-73,95; 155,67</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 6,48</t>
+          <t>-17,14; 5,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 12,76</t>
+          <t>-10,04; 13,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 11,73</t>
+          <t>-21,27; 11,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 19,15</t>
+          <t>-10,18; 20,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-53,39; 27,5</t>
+          <t>-51,84; 22,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-27,3; 44,5</t>
+          <t>-25,94; 49,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-38,4; 31,92</t>
+          <t>-39,97; 29,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-29,16; 75,56</t>
+          <t>-26,93; 80,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP09-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP09-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que padecen actualmente alguna dolencia o enfermedad continuada</t>
+          <t>Menores que padecen actualmente esa dolencia, enfermedad o impedimento que le ha limitado de forma continuada (más de 10 días en los últimos 12 meses)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,36</t>
+          <t>18,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>296,03%</t>
+          <t>207,93%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-29,47; 30,41</t>
+          <t>-29,6; 29,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,53; 23,61</t>
+          <t>-18,3; 26,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 54,65</t>
+          <t>-5,07; 58,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 49,58</t>
+          <t>-10,13; 46,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-75,48; 192,61</t>
+          <t>-79,42; 190,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-52,8; 129,36</t>
+          <t>-48,39; 144,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 529,05</t>
+          <t>-17,57; 656,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,39</t>
+          <t>15,08</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>41,44%</t>
+          <t>41,28%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,43; 13,87</t>
+          <t>-19,73; 12,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 24,6</t>
+          <t>-12,04; 25,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-46,14; 3,06</t>
+          <t>-46,24; 2,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 43,99</t>
+          <t>-12,52; 43,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-74,94; 113,75</t>
+          <t>-71,93; 94,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,15; 157,54</t>
+          <t>-37,15; 162,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-70,31; 9,21</t>
+          <t>-70,62; 4,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,23; 168,15</t>
+          <t>-29,25; 189,47</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>10,2%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-42,98; 14,68</t>
+          <t>-41,36; 11,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 34,64</t>
+          <t>-19,44; 34,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-69,12; 11,56</t>
+          <t>-73,58; 11,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,95; 30,56</t>
+          <t>-27,18; 29,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-81,47; 64,19</t>
+          <t>-81,51; 49,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-48,6; 346,93</t>
+          <t>-49,89; 297,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-82,25; 8,29</t>
+          <t>-81,11; 18,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-45,65; 113,75</t>
+          <t>-50,84; 97,17</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-5,65</t>
+          <t>6,54</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-19,45%</t>
+          <t>25,85%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,26; 29,34</t>
+          <t>-29,13; 33,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-39,3; 13,3</t>
+          <t>-39,28; 13,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,34; 42,44</t>
+          <t>-30,47; 41,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,73; 21,45</t>
+          <t>-17,69; 47,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,69; 156,68</t>
+          <t>-73,79; 171,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,7; 28,1</t>
+          <t>-62,83; 29,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-54,15; 261,84</t>
+          <t>-61,83; 208,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-73,95; 155,67</t>
+          <t>-60,14; 421,55</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>8,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>27,36%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 5,51</t>
+          <t>-18,11; 5,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 13,87</t>
+          <t>-12,28; 11,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 11,48</t>
+          <t>-20,83; 10,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 20,11</t>
+          <t>-6,45; 29,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-51,84; 22,52</t>
+          <t>-54,18; 22,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 49,44</t>
+          <t>-30,34; 39,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-39,97; 29,22</t>
+          <t>-39,86; 26,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-26,93; 80,09</t>
+          <t>-21,14; 133,41</t>
         </is>
       </c>
     </row>
